--- a/Cup2022.xlsx
+++ b/Cup2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,58 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ayranayeter</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>b'Bug\xc3\xbcn o teyzenin bana \xc3\xbcst\xc3\xbcmdeki k\xc4\xb1yafetten dolay\xc4\xb1 "or*sp" demesiyle,  tecav\xc3\xbcze u\xc4\x9frayan bir kad\xc4\xb1na etek giymi\xc5\x9fti tah\xe2\x80\xa6 https://t.co/JhZNB2ztjx'</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>umaypercin73</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>b'@HaberReport Tabii hep #istanbulsozlesmesi y\xc3\xbcz\xc3\xbcnden zaten \xf0\x9f\x98\xb3'</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
